--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3652676142155179</v>
+        <v>0.3681689695311873</v>
       </c>
       <c r="C11" t="n">
-        <v>1.289826855160802</v>
+        <v>1.307490297538386</v>
       </c>
       <c r="D11" t="n">
-        <v>2.110423745066352</v>
+        <v>2.301266609957772</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2875303734037797</v>
+        <v>0.2816491086563854</v>
       </c>
       <c r="C11" t="n">
-        <v>1.015667107155604</v>
+        <v>1.004430655450528</v>
       </c>
       <c r="D11" t="n">
-        <v>1.241369866807754</v>
+        <v>1.253429645193668</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.746442377977145</v>
+        <v>10.25013934131045</v>
       </c>
       <c r="C2" t="n">
-        <v>16.07075883952663</v>
+        <v>28.49027392716582</v>
       </c>
       <c r="D2" t="n">
-        <v>20.37932721107382</v>
+        <v>34.82317570157399</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.400363252192446</v>
+        <v>16.01378422730973</v>
       </c>
       <c r="C3" t="n">
-        <v>25.25237927463168</v>
+        <v>46.4845440602861</v>
       </c>
       <c r="D3" t="n">
-        <v>34.52909435090589</v>
+        <v>58.19881126156162</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.584221459282181</v>
+        <v>10.08699118448328</v>
       </c>
       <c r="C4" t="n">
-        <v>15.52882518089297</v>
+        <v>28.06242061840337</v>
       </c>
       <c r="D4" t="n">
-        <v>19.90505265387162</v>
+        <v>34.24332618181929</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.455782471477972</v>
+        <v>11.94270728990415</v>
       </c>
       <c r="C5" t="n">
-        <v>18.79267143567083</v>
+        <v>34.12370005249068</v>
       </c>
       <c r="D5" t="n">
-        <v>22.96995323767269</v>
+        <v>41.35009940165639</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.857960521777679</v>
+        <v>11.15561325017124</v>
       </c>
       <c r="C6" t="n">
-        <v>16.39305933052565</v>
+        <v>30.9866660472233</v>
       </c>
       <c r="D6" t="n">
-        <v>20.94150811788577</v>
+        <v>39.82753774614866</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.64473993889075</v>
+        <v>11.43605519184727</v>
       </c>
       <c r="C7" t="n">
-        <v>19.65992088580105</v>
+        <v>33.32143977987845</v>
       </c>
       <c r="D7" t="n">
-        <v>28.80472032196307</v>
+        <v>45.24332851021157</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.380632020035235</v>
+        <v>15.97555878701339</v>
       </c>
       <c r="C8" t="n">
-        <v>25.18480292815225</v>
+        <v>46.34971091871522</v>
       </c>
       <c r="D8" t="n">
-        <v>34.43525932371367</v>
+        <v>58.04284219366878</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.501655433678499</v>
+        <v>16.15721218205449</v>
       </c>
       <c r="C9" t="n">
-        <v>25.62407890519436</v>
+        <v>47.0035512112801</v>
       </c>
       <c r="D9" t="n">
-        <v>34.89962515263291</v>
+        <v>58.32939473842163</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.03774654327244</v>
+        <v>21.95277395381693</v>
       </c>
       <c r="C10" t="n">
-        <v>94.04298407744338</v>
+        <v>85.16855530611458</v>
       </c>
       <c r="D10" t="n">
-        <v>94.13466660451901</v>
+        <v>85.31686703311519</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2816491086563854</v>
+        <v>0.4756434050130759</v>
       </c>
       <c r="C11" t="n">
-        <v>1.004430655450528</v>
+        <v>1.343459470774613</v>
       </c>
       <c r="D11" t="n">
-        <v>1.253429645193668</v>
+        <v>1.619995628637154</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09344472209871049</v>
+        <v>0.06196480315722035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3341828491173521</v>
+        <v>0.180844436673557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4312622645521751</v>
+        <v>0.2329541315168224</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2996115533735767</v>
+        <v>0.4615080111329421</v>
       </c>
       <c r="C13" t="n">
-        <v>1.058428276672402</v>
+        <v>1.148132519300149</v>
       </c>
       <c r="D13" t="n">
-        <v>1.31773868675323</v>
+        <v>2.184464699348148</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros validação.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.25013934131045</v>
+        <v>11.2495636607988</v>
       </c>
       <c r="C2" t="n">
-        <v>28.49027392716582</v>
+        <v>33.17549037200744</v>
       </c>
       <c r="D2" t="n">
-        <v>34.82317570157399</v>
+        <v>42.44403983394887</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.01378422730973</v>
+        <v>16.15287092370232</v>
       </c>
       <c r="C3" t="n">
-        <v>46.4845440602861</v>
+        <v>48.97802813247824</v>
       </c>
       <c r="D3" t="n">
-        <v>58.19881126156162</v>
+        <v>63.58526877990535</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.08699118448328</v>
+        <v>10.83523727520635</v>
       </c>
       <c r="C4" t="n">
-        <v>28.06242061840337</v>
+        <v>32.10154982498171</v>
       </c>
       <c r="D4" t="n">
-        <v>34.24332618181929</v>
+        <v>41.40000828398921</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.94270728990415</v>
+        <v>11.35163288577513</v>
       </c>
       <c r="C5" t="n">
-        <v>34.12370005249068</v>
+        <v>33.60780513410619</v>
       </c>
       <c r="D5" t="n">
-        <v>41.35009940165639</v>
+        <v>42.93310672460168</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.15561325017124</v>
+        <v>11.50465610699257</v>
       </c>
       <c r="C6" t="n">
-        <v>30.9866660472233</v>
+        <v>33.94083838422284</v>
       </c>
       <c r="D6" t="n">
-        <v>39.82753774614866</v>
+        <v>43.40167165471418</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.43605519184727</v>
+        <v>11.83486803000216</v>
       </c>
       <c r="C7" t="n">
-        <v>33.32143977987845</v>
+        <v>35.97862072454789</v>
       </c>
       <c r="D7" t="n">
-        <v>45.24332851021157</v>
+        <v>49.71448095340367</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.97555878701339</v>
+        <v>16.15459252191733</v>
       </c>
       <c r="C8" t="n">
-        <v>46.34971091871522</v>
+        <v>49.01148916759036</v>
       </c>
       <c r="D8" t="n">
-        <v>58.04284219366878</v>
+        <v>63.5846786418361</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.15721218205449</v>
+        <v>16.27666105084722</v>
       </c>
       <c r="C9" t="n">
-        <v>47.0035512112801</v>
+        <v>49.37518442092436</v>
       </c>
       <c r="D9" t="n">
-        <v>58.32939473842163</v>
+        <v>63.85113403658816</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.95277395381693</v>
+        <v>21.40594789151174</v>
       </c>
       <c r="C10" t="n">
-        <v>85.16855530611458</v>
+        <v>86.98861680559079</v>
       </c>
       <c r="D10" t="n">
-        <v>85.31686703311519</v>
+        <v>87.29313422141263</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4756434050130759</v>
+        <v>0.367766467972485</v>
       </c>
       <c r="C11" t="n">
-        <v>1.343459470774613</v>
+        <v>1.090758759367699</v>
       </c>
       <c r="D11" t="n">
-        <v>1.619995628637154</v>
+        <v>1.530790113982116</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06196480315722035</v>
+        <v>0.1549941544302119</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180844436673557</v>
+        <v>0.4908431004854589</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2329541315168224</v>
+        <v>0.6810774380504167</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4615080111329421</v>
+        <v>0.4660657186569878</v>
       </c>
       <c r="C13" t="n">
-        <v>1.148132519300149</v>
+        <v>1.399365264266902</v>
       </c>
       <c r="D13" t="n">
-        <v>2.184464699348148</v>
+        <v>1.902692996343542</v>
       </c>
     </row>
   </sheetData>
